--- a/REGULAR/RE-ENCODE/RODRIQUEZ, RUEL.xlsx
+++ b/REGULAR/RE-ENCODE/RODRIQUEZ, RUEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>3/18-20/2023</t>
+  </si>
+  <si>
+    <t>SL(27-0-0)</t>
+  </si>
+  <si>
+    <t>3/25-4/30/2023</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1458,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>260.45</v>
+        <v>233.45</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3005,7 +3011,9 @@
       <c r="A84" s="40">
         <v>45017</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -3014,10 +3022,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>27</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">

--- a/REGULAR/RE-ENCODE/RODRIQUEZ, RUEL.xlsx
+++ b/REGULAR/RE-ENCODE/RODRIQUEZ, RUEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>3/25-4/30/2023</t>
+  </si>
+  <si>
+    <t>SL(22-0-0)</t>
+  </si>
+  <si>
+    <t>5/1-31/2023</t>
   </si>
 </sst>
 </file>
@@ -1287,9 +1293,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1454,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>146.69</v>
+        <v>147.94</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1458,7 +1464,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>233.45</v>
+        <v>212.7</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3014,13 +3020,15 @@
       <c r="B84" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39">
         <v>27</v>
@@ -3035,7 +3043,9 @@
       <c r="A85" s="40">
         <v>45047</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -3044,10 +3054,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>22</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
